--- a/HospitalDatabase.xlsx
+++ b/HospitalDatabase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B5106-5D4C-4FF8-9E41-C5FDF2525E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="1680" windowWidth="21600" windowHeight="11772"/>
+    <workbookView xWindow="2448" yWindow="1680" windowWidth="21600" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hospital Name</t>
   </si>
@@ -45,27 +46,12 @@
   </si>
   <si>
     <t>Incharge No</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>dummy123</t>
-  </si>
-  <si>
-    <t>dummyhosp</t>
-  </si>
-  <si>
-    <t>Paris,France</t>
-  </si>
-  <si>
-    <t>Saish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +414,7 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row spans="1:7" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -451,27 +437,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>9465494</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>84454919</v>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hospital4042</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>hospital4042</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Sub District Hospital</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>0832 231 4042</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Ponda</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Rajesh Naik</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>8450124593</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/HospitalDatabase.xlsx
+++ b/HospitalDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B5106-5D4C-4FF8-9E41-C5FDF2525E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599DECBA-D4A2-4E8E-A5BE-16DE7378C0B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1680" windowWidth="21600" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Hospital Name</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Incharge No</t>
+  </si>
+  <si>
+    <t>hospital4042</t>
+  </si>
+  <si>
+    <t>Sub District Hospital</t>
+  </si>
+  <si>
+    <t>08322314042</t>
+  </si>
+  <si>
+    <t>Ponda</t>
+  </si>
+  <si>
+    <t>Saish Pawar</t>
+  </si>
+  <si>
+    <t>8452013654</t>
   </si>
 </sst>
 </file>
@@ -396,10 +414,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -414,7 +432,7 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:7" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -437,41 +455,27 @@
         <v>6</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>hospital4042</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>hospital4042</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Sub District Hospital</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>0832 231 4042</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Ponda</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>Rajesh Naik</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>8450124593</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
